--- a/similarities/split_global/harmonic_similarity_timestamps_317.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_317.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:dim7', 'C#:maj', 'F#:maj/A#']]</t>
+          <t>['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:17.520000', '0:00:20.420000')]</t>
+          <t>('0:01:12.500000', '0:01:33.840000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:17.769637', '0:00:22.996281')]</t>
+          <t>('0:00:19.500000', '0:00:49.860000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=17.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=72.5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-238#t=17.769637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['C:7', 'F', 'C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:27.460000', '0:00:36.020000')]</t>
+          <t>('0:00:39.386636', '0:00:52.146870')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000'), ('0:01:30.600000', '0:01:41.180000')]</t>
+          <t>('0:01:06.040000', '0:01:08.540000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=27.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=39.386636</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=90.6']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.04</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:04.280000', '0:01:14.480000')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=64.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
+          <t>('0:00:40.120000', '0:00:47.880000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:30.900000')]</t>
+          <t>('0:01:21.100000', '0:01:27.580000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C', 'A:min', 'D:min']]</t>
+          <t>['G:7', 'C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'G:min', 'C:min']]</t>
+          <t>['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:20.865000', '0:00:27.322000')]</t>
+          <t>('0:01:30.128000', '0:01:39.300000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:56.488911', '0:01:00.854263')]</t>
+          <t>('0:00:27.520000', '0:00:38.500000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=20.865']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=56.488911']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=27.52</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C:maj', 'G', 'C/5', 'G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['G/5', 'D', 'G/5', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:43.060000', '0:01:03.280000')]</t>
+          <t>('0:00:57.406099', '0:01:08.064058')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.140000', '0:00:09.880000')]</t>
+          <t>('0:00:21.391000', '0:00:32.032000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=43.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=57.406099</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=21.391</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A:dim7', 'A#:min', 'A:dim7'], ['F:7', 'A#:min', 'A:dim7', 'A#:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C'], ['G:7', 'C:min', 'B:dim7/C', 'C:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:24.340000', '0:00:31.040000'), ('0:00:22.800000', '0:00:29.340000')]</t>
+          <t>('0:00:07.140000', '0:00:14.340000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:07.300000'), ('0:01:06.920000', '0:01:15.860000')]</t>
+          <t>('0:00:13.420000', '0:00:19.500000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=24.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=22.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=7.14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=66.92']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:20.200000', '0:00:22.820000')]</t>
+          <t>('0:00:17.737518', '0:00:22.996837')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:08.080000', '0:00:19.060000')]</t>
+          <t>('0:00:54.760000', '0:01:02.820000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=20.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F', 'C']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+          <t>('0:00:42.440000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
+          <t>('0:02:04.300000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>isophonics_32</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['G', 'A', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:12.446000', '0:00:16.277000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:06.774988', '0:00:12.022698')]</t>
+          <t>('0:00:29.965374', '0:00:34.307505')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=29.965374</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'Ab']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'A#:maj']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:45.670000', '0:00:51.020000')]</t>
+          <t>('0:00:40.280000', '0:00:48.720000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:49.740000', '0:01:00.040000')]</t>
+          <t>('0:00:41.060000', '0:00:45.160000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=45.67']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=40.28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=49.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=41.06</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:33.698526', '0:00:42.916848')]</t>
+          <t>('0:00:58.670000', '0:01:04.130000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:49.280000', '0:00:56.880000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=49.28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['A:min', 'G#:dim7', 'A:min', 'G#:dim7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
+          <t>('0:00:00.460000', '0:00:07.620000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
+          <t>('0:00:21.900000', '0:00:26.280000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=0.46</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=21.9</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['F', 'C', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
+          <t>('0:00:56.880000', '0:01:04.440000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+          <t>('0:00:41.895260', '0:00:54.712675')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=56.88</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=41.89526</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['D:min7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:01:05.760000', '0:01:11.940000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:11.260000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=65.76</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=11.26</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
